--- a/output/dati.xlsx
+++ b/output/dati.xlsx
@@ -638,16 +638,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Residui: economia regionale, energia e ambiente, mercato immobiliare</t>
+          <t>Energia e ambiente, Economia regionale e mercato immobiliare</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Q, R, Y, Z, P, D9, A, B</t>
+          <t>Q, R</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.049625468164794</v>
+        <v>0.04681647940074907</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D03, E01</t>
+          <t>E01, D03, P33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.007490636704119849</v>
+        <v>0.01029962546816479</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Residui: economia regionale, energia e ambiente, mercato immobiliare</t>
+          <t>Energia e ambiente, Economia regionale e mercato immobiliare</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Q, R, Y, Z, P, D9, A, B</t>
+          <t>Q, R</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.09770955165692008</v>
+        <v>0.05540935672514619</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -883,11 +883,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E71, E00</t>
+          <t>A2, B30, A23, Z1, B26, A1, B20, E00, D92, B17, B1, E71, Z31, Z3, Z10, B32, B31, B00, B27, P5, P16, D91, Z13</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001169590643274854</v>
+        <v>0.04346978557504873</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/output/dati.xlsx
+++ b/output/dati.xlsx
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Energia e ambiente, Economia regionale e mercato immobiliare</t>
+          <t>Miscellanea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E01, D03, P33</t>
+          <t>D03, P33, E01</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Energia e ambiente, Economia regionale e mercato immobiliare</t>
+          <t>Miscellanea</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A2, B30, A23, Z1, B26, A1, B20, E00, D92, B17, B1, E71, Z31, Z3, Z10, B32, B31, B00, B27, P5, P16, D91, Z13</t>
+          <t>A1, B00, B27, Z1, Z13, B31, E00, B32, Z10, D91, A23, B17, Z31, D92, P16, B1, Z3, B20, B30, B26, E71, A2, P5</t>
         </is>
       </c>
       <c r="C23" t="n">

--- a/output/dati.xlsx
+++ b/output/dati.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D03, P33, E01</t>
+          <t>E01, P33, D03</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A1, B00, B27, Z1, Z13, B31, E00, B32, Z10, D91, A23, B17, Z31, D92, P16, B1, Z3, B20, B30, B26, E71, A2, P5</t>
+          <t>D92, B32, A1, B20, B1, B31, E00, P5, A23, Z10, Z3, B26, Z1, D91, E71, Z31, B30, B00, A2, B27, P16, Z13, B17</t>
         </is>
       </c>
       <c r="C23" t="n">

--- a/output/dati.xlsx
+++ b/output/dati.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E01, P33, D03</t>
+          <t>P33, D03, E01</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D92, B32, A1, B20, B1, B31, E00, P5, A23, Z10, Z3, B26, Z1, D91, E71, Z31, B30, B00, A2, B27, P16, Z13, B17</t>
+          <t>Z3, Z13, Z31, A2, D92, B17, P16, D91, A23, E71, B1, B31, B32, B00, B20, E00, Z1, B30, B27, A1, B26, Z10, P5</t>
         </is>
       </c>
       <c r="C23" t="n">
